--- a/Répartition/Générale.xlsx
+++ b/Répartition/Générale.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7908"/>
   </bookViews>
   <sheets>
     <sheet name="projet" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,10 +521,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -714,15 +714,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -730,6 +730,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -992,38 +995,38 @@
   <dimension ref="B2:BQ34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="7.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
-    <col min="9" max="28" width="4.125" style="1" customWidth="1"/>
-    <col min="29" max="70" width="4.125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="7.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" style="1" customWidth="1"/>
+    <col min="9" max="28" width="4.109375" style="1" customWidth="1"/>
+    <col min="29" max="70" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:69" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="I3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1060,25 +1063,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+    <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:69" x14ac:dyDescent="0.35">
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="2:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:69" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="19" t="s">
         <v>11</v>
@@ -1102,7 +1105,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1127,7 +1130,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1317,7 +1320,7 @@
       </c>
       <c r="BQ8" s="1"/>
     </row>
-    <row r="9" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="21" t="s">
         <v>15</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="s">
         <v>16</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>18</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1425,7 +1428,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1433,7 +1436,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="21"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1441,7 +1444,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="21"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1449,7 +1452,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="21"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1457,7 +1460,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21"/>
       <c r="C19" s="17"/>
       <c r="D19" s="15"/>
@@ -1465,7 +1468,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="21"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1473,7 +1476,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="21"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1481,7 +1484,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="21"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1489,7 +1492,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1497,7 +1500,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="21"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -1505,7 +1508,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1513,7 +1516,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="21"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -1521,7 +1524,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="21"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1529,7 +1532,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="21"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1537,7 +1540,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="21"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1545,7 +1548,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="21"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -1553,7 +1556,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="21"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -1561,7 +1564,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="21"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -1569,7 +1572,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="21"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1577,7 +1580,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="21"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -1639,15 +1642,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>68580</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>259080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
